--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_20-13.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_20-13.xlsx
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>FERRODEP 30 CAPS.</t>
   </si>
   <si>
     <t>FLACORT 30MG 20 TAB</t>
@@ -1819,17 +1822,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>164</v>
+        <v>147.5</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1845,17 +1848,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1863,7 +1866,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1871,13 +1874,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1889,7 +1892,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1897,13 +1900,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1915,7 +1918,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1923,17 +1926,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1949,13 +1952,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1975,13 +1978,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2007,7 +2010,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2027,17 +2030,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2045,7 +2048,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2053,13 +2056,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2079,17 +2082,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2097,7 +2100,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2105,13 +2108,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2123,7 +2126,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2131,17 +2134,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>64.5</v>
+        <v>57</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2157,17 +2160,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>110</v>
+        <v>64.5</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2183,13 +2186,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2209,13 +2212,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2235,13 +2238,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2261,13 +2264,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23.039999999999999</v>
+        <v>15</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2287,17 +2290,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2313,13 +2316,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2331,7 +2334,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2339,17 +2342,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2365,13 +2368,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2391,13 +2394,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2423,11 +2426,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2435,7 +2438,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2443,17 +2446,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2469,17 +2472,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2495,13 +2498,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2521,13 +2524,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2547,17 +2550,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2565,7 +2568,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2573,17 +2576,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2599,17 +2602,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2617,7 +2620,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2625,17 +2628,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2657,7 +2660,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2677,13 +2680,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>-96</v>
+        <v>168</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2703,13 +2706,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2729,13 +2732,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>-25</v>
+        <v>96</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2747,7 +2750,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2755,13 +2758,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2773,7 +2776,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2781,13 +2784,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2807,13 +2810,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2833,17 +2836,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2851,7 +2854,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2859,17 +2862,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2877,7 +2880,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2885,17 +2888,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2911,13 +2914,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2929,7 +2932,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2937,13 +2940,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2963,17 +2966,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2981,7 +2984,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2989,17 +2992,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3015,13 +3018,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3041,13 +3044,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3067,51 +3070,77 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="K86" s="10">
-        <v>5187.4399999999996</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="11">
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
+        <v>119</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
         <v>120</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c t="s" r="F87" s="12">
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>65</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c t="s" r="N86" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" ht="26.25" customHeight="1">
+      <c r="K87" s="10">
+        <v>5334.9399999999996</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="11">
         <v>121</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c t="s" r="I87" s="14">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c t="s" r="F88" s="12">
         <v>122</v>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
+      <c t="s" r="I88" s="14">
+        <v>123</v>
+      </c>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="260">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3365,10 +3394,13 @@
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:N87"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:N88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
